--- a/outcome/appendix/data/Epidemic/Rubella.xlsx
+++ b/outcome/appendix/data/Epidemic/Rubella.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1722.50748368523</v>
+        <v>1682.24278870184</v>
       </c>
       <c r="C2" t="n">
-        <v>1128.65460342033</v>
+        <v>-2264.17309044861</v>
       </c>
       <c r="D2" t="n">
-        <v>814.287878069938</v>
+        <v>-3677.37531948251</v>
       </c>
       <c r="E2" t="n">
-        <v>2316.36036395013</v>
+        <v>5251.6832024515</v>
       </c>
       <c r="F2" t="n">
-        <v>2630.72708930052</v>
+        <v>7312.0048603957</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>1199</v>
       </c>
       <c r="I2" t="n">
-        <v>523.50748368523</v>
+        <v>483.242788701841</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1573.7547520467</v>
+        <v>1661.19847165088</v>
       </c>
       <c r="C3" t="n">
-        <v>792.728171138095</v>
+        <v>-3577.16817579264</v>
       </c>
       <c r="D3" t="n">
-        <v>379.277673866225</v>
+        <v>-7304.39095069747</v>
       </c>
       <c r="E3" t="n">
-        <v>2354.78133295532</v>
+        <v>6622.06286441681</v>
       </c>
       <c r="F3" t="n">
-        <v>2768.23183022718</v>
+        <v>9631.91347362193</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>306</v>
       </c>
       <c r="I3" t="n">
-        <v>1267.7547520467</v>
+        <v>1355.19847165088</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>5000.35717921842</v>
+        <v>4467.45275577522</v>
       </c>
       <c r="C4" t="n">
-        <v>1905.97617927905</v>
+        <v>-1413.24139462009</v>
       </c>
       <c r="D4" t="n">
-        <v>267.909826037655</v>
+        <v>-4134.21528410361</v>
       </c>
       <c r="E4" t="n">
-        <v>8094.73817915779</v>
+        <v>11439.7627950766</v>
       </c>
       <c r="F4" t="n">
-        <v>9732.80453239918</v>
+        <v>14410.7617462305</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>197</v>
       </c>
       <c r="I4" t="n">
-        <v>4803.35717921842</v>
+        <v>4270.45275577522</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>8709.16575577456</v>
+        <v>8012.52143831071</v>
       </c>
       <c r="C5" t="n">
-        <v>2371.80108461244</v>
+        <v>189.030427564245</v>
       </c>
       <c r="D5" t="n">
-        <v>-982.997124223106</v>
+        <v>-2134.10093718527</v>
       </c>
       <c r="E5" t="n">
-        <v>15046.5304269367</v>
+        <v>15750.1026658675</v>
       </c>
       <c r="F5" t="n">
-        <v>18401.3286357722</v>
+        <v>19815.1873092456</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>116</v>
       </c>
       <c r="I5" t="n">
-        <v>8593.16575577456</v>
+        <v>7896.52143831071</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>9717.02457056929</v>
+        <v>9445.19837821174</v>
       </c>
       <c r="C6" t="n">
-        <v>1665.09733903548</v>
+        <v>1578.89100186178</v>
       </c>
       <c r="D6" t="n">
-        <v>-2597.33546318961</v>
+        <v>-2205.78556490579</v>
       </c>
       <c r="E6" t="n">
-        <v>17768.9518021031</v>
+        <v>17032.501640787</v>
       </c>
       <c r="F6" t="n">
-        <v>22031.3846043282</v>
+        <v>22847.229300097</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>9627.02457056929</v>
+        <v>9355.19837821174</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5505.56319948048</v>
+        <v>5711.40847405705</v>
       </c>
       <c r="C7" t="n">
-        <v>414.285516131601</v>
+        <v>-3138.54061468026</v>
       </c>
       <c r="D7" t="n">
-        <v>-2280.87408711893</v>
+        <v>-6894.53221395624</v>
       </c>
       <c r="E7" t="n">
-        <v>10596.8408828294</v>
+        <v>14508.4342865746</v>
       </c>
       <c r="F7" t="n">
-        <v>13292.0004860799</v>
+        <v>19433.6278836216</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>114</v>
       </c>
       <c r="I7" t="n">
-        <v>5391.56319948048</v>
+        <v>5597.40847405705</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2489.08076783683</v>
+        <v>2400.27729680086</v>
       </c>
       <c r="C8" t="n">
-        <v>-44.2577403004939</v>
+        <v>-7024.16462752595</v>
       </c>
       <c r="D8" t="n">
-        <v>-1385.32613867542</v>
+        <v>-11559.6611296133</v>
       </c>
       <c r="E8" t="n">
-        <v>5022.41927597416</v>
+        <v>11723.3735464812</v>
       </c>
       <c r="F8" t="n">
-        <v>6363.48767434909</v>
+        <v>15928.1630220154</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>96</v>
       </c>
       <c r="I8" t="n">
-        <v>2393.08076783683</v>
+        <v>2304.27729680086</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1236.72874640402</v>
+        <v>974.144395385645</v>
       </c>
       <c r="C9" t="n">
-        <v>-134.68338178881</v>
+        <v>-8746.43245677837</v>
       </c>
       <c r="D9" t="n">
-        <v>-860.665109205004</v>
+        <v>-13030.659470103</v>
       </c>
       <c r="E9" t="n">
-        <v>2608.14087459684</v>
+        <v>11308.1179261156</v>
       </c>
       <c r="F9" t="n">
-        <v>3334.12260201304</v>
+        <v>16880.3122244407</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>82</v>
       </c>
       <c r="I9" t="n">
-        <v>1154.72874640402</v>
+        <v>892.144395385645</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1020.38472702269</v>
+        <v>1192.7045438805</v>
       </c>
       <c r="C10" t="n">
-        <v>-203.003155959862</v>
+        <v>-8861.52022447152</v>
       </c>
       <c r="D10" t="n">
-        <v>-850.625581290224</v>
+        <v>-14799.8624426148</v>
       </c>
       <c r="E10" t="n">
-        <v>2243.77261000524</v>
+        <v>11982.7684184494</v>
       </c>
       <c r="F10" t="n">
-        <v>2891.3950353356</v>
+        <v>18225.2569466338</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="n">
-        <v>918.384727022687</v>
+        <v>1090.7045438805</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1086.38153310003</v>
+        <v>1371.15803957078</v>
       </c>
       <c r="C11" t="n">
-        <v>-313.458742176718</v>
+        <v>-9674.18492841222</v>
       </c>
       <c r="D11" t="n">
-        <v>-1054.4894216205</v>
+        <v>-14858.4829427437</v>
       </c>
       <c r="E11" t="n">
-        <v>2486.22180837678</v>
+        <v>13558.5743477495</v>
       </c>
       <c r="F11" t="n">
-        <v>3227.25248782056</v>
+        <v>19621.0530362734</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>157</v>
       </c>
       <c r="I11" t="n">
-        <v>929.38153310003</v>
+        <v>1214.15803957078</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1268.69925915799</v>
+        <v>1456.07858812298</v>
       </c>
       <c r="C12" t="n">
-        <v>-479.756132394754</v>
+        <v>-10120.8316890271</v>
       </c>
       <c r="D12" t="n">
-        <v>-1405.33250683028</v>
+        <v>-16485.5154249419</v>
       </c>
       <c r="E12" t="n">
-        <v>3017.15465071074</v>
+        <v>13375.3045243925</v>
       </c>
       <c r="F12" t="n">
-        <v>3942.73102514626</v>
+        <v>20833.7878887541</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>276</v>
       </c>
       <c r="I12" t="n">
-        <v>992.699259157991</v>
+        <v>1180.07858812298</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1718.01420378355</v>
+        <v>1821.28157493801</v>
       </c>
       <c r="C13" t="n">
-        <v>-804.340402051133</v>
+        <v>-10752.9714769921</v>
       </c>
       <c r="D13" t="n">
-        <v>-2139.59427377611</v>
+        <v>-18824.8289902589</v>
       </c>
       <c r="E13" t="n">
-        <v>4240.36880961823</v>
+        <v>14803.16617577</v>
       </c>
       <c r="F13" t="n">
-        <v>5575.62268134321</v>
+        <v>22363.5410725928</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>104</v>
       </c>
       <c r="I13" t="n">
-        <v>1614.01420378355</v>
+        <v>1717.28157493801</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1722.52003769654</v>
+        <v>1439.26964200406</v>
       </c>
       <c r="C14" t="n">
-        <v>-962.848490676093</v>
+        <v>-11985.1279168767</v>
       </c>
       <c r="D14" t="n">
-        <v>-2384.39672034359</v>
+        <v>-18187.1811748233</v>
       </c>
       <c r="E14" t="n">
-        <v>4407.88856606918</v>
+        <v>14468.5396977464</v>
       </c>
       <c r="F14" t="n">
-        <v>5829.43679573668</v>
+        <v>22966.2563956416</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>127</v>
       </c>
       <c r="I14" t="n">
-        <v>1595.52003769654</v>
+        <v>1312.26964200406</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1573.76622191557</v>
+        <v>1457.0761357468</v>
       </c>
       <c r="C15" t="n">
-        <v>-1024.18726743177</v>
+        <v>-12439.1991817767</v>
       </c>
       <c r="D15" t="n">
-        <v>-2399.4607706847</v>
+        <v>-21182.8046353887</v>
       </c>
       <c r="E15" t="n">
-        <v>4171.71971126291</v>
+        <v>14980.5048252306</v>
       </c>
       <c r="F15" t="n">
-        <v>5546.99321451584</v>
+        <v>23690.5235026365</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>46</v>
       </c>
       <c r="I15" t="n">
-        <v>1527.76622191557</v>
+        <v>1411.0761357468</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>5000.39362291529</v>
+        <v>4204.48771313815</v>
       </c>
       <c r="C16" t="n">
-        <v>-3719.68604150992</v>
+        <v>-8858.86359917337</v>
       </c>
       <c r="D16" t="n">
-        <v>-8335.81737639056</v>
+        <v>-20694.9744614363</v>
       </c>
       <c r="E16" t="n">
-        <v>13720.4732873405</v>
+        <v>18001.5388976035</v>
       </c>
       <c r="F16" t="n">
-        <v>18336.6046222211</v>
+        <v>26753.6776581767</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>82</v>
       </c>
       <c r="I16" t="n">
-        <v>4918.39362291529</v>
+        <v>4122.48771313815</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>8709.22923007958</v>
+        <v>8133.05850369506</v>
       </c>
       <c r="C17" t="n">
-        <v>-7302.47465403387</v>
+        <v>-6340.45218752979</v>
       </c>
       <c r="D17" t="n">
-        <v>-15778.5586886581</v>
+        <v>-16018.038051385</v>
       </c>
       <c r="E17" t="n">
-        <v>24720.933114193</v>
+        <v>22467.6080246028</v>
       </c>
       <c r="F17" t="n">
-        <v>33197.0171488173</v>
+        <v>30131.4701353057</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>107</v>
       </c>
       <c r="I17" t="n">
-        <v>8602.22923007958</v>
+        <v>8026.05850369506</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>9717.0953903698</v>
+        <v>9532.42246408241</v>
       </c>
       <c r="C18" t="n">
-        <v>-9083.3900349258</v>
+        <v>-5997.3192326258</v>
       </c>
       <c r="D18" t="n">
-        <v>-19035.7658413909</v>
+        <v>-15155.1498155489</v>
       </c>
       <c r="E18" t="n">
-        <v>28517.5808156654</v>
+        <v>24732.9931434881</v>
       </c>
       <c r="F18" t="n">
-        <v>38469.9566221305</v>
+        <v>32998.5202210505</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>187</v>
       </c>
       <c r="I18" t="n">
-        <v>9530.0953903698</v>
+        <v>9345.42246408241</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5505.60332522934</v>
+        <v>6094.02251135227</v>
       </c>
       <c r="C19" t="n">
-        <v>-5687.28189116755</v>
+        <v>-9863.548805953</v>
       </c>
       <c r="D19" t="n">
-        <v>-11612.4374130738</v>
+        <v>-21120.8958812708</v>
       </c>
       <c r="E19" t="n">
-        <v>16698.4885416262</v>
+        <v>21730.2080513378</v>
       </c>
       <c r="F19" t="n">
-        <v>22623.6440635325</v>
+        <v>29520.8701176267</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>115</v>
       </c>
       <c r="I19" t="n">
-        <v>5390.60332522934</v>
+        <v>5979.02251135227</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2489.09890880192</v>
+        <v>2470.47549330965</v>
       </c>
       <c r="C20" t="n">
-        <v>-2820.89896545507</v>
+        <v>-14192.5740970634</v>
       </c>
       <c r="D20" t="n">
-        <v>-5631.84204382005</v>
+        <v>-26231.6702944098</v>
       </c>
       <c r="E20" t="n">
-        <v>7799.09678305891</v>
+        <v>18649.6585129049</v>
       </c>
       <c r="F20" t="n">
-        <v>10610.0398614239</v>
+        <v>26574.0062349461</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>102</v>
       </c>
       <c r="I20" t="n">
-        <v>2387.09890880192</v>
+        <v>2368.47549330965</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1236.73775995364</v>
+        <v>1713.40150979819</v>
       </c>
       <c r="C21" t="n">
-        <v>-1528.44338916086</v>
+        <v>-15793.764451541</v>
       </c>
       <c r="D21" t="n">
-        <v>-2992.241868104</v>
+        <v>-27428.6554595252</v>
       </c>
       <c r="E21" t="n">
-        <v>4001.91890906813</v>
+        <v>17914.5719583091</v>
       </c>
       <c r="F21" t="n">
-        <v>5465.71738801127</v>
+        <v>25315.9746503328</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>68</v>
       </c>
       <c r="I21" t="n">
-        <v>1168.73775995364</v>
+        <v>1645.40150979819</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1020.39216380977</v>
+        <v>1760.70711140276</v>
       </c>
       <c r="C22" t="n">
-        <v>-1368.20900618701</v>
+        <v>-15732.086689592</v>
       </c>
       <c r="D22" t="n">
-        <v>-2632.65808597434</v>
+        <v>-28556.9162341774</v>
       </c>
       <c r="E22" t="n">
-        <v>3408.99333380655</v>
+        <v>18557.8328875312</v>
       </c>
       <c r="F22" t="n">
-        <v>4673.44241359388</v>
+        <v>26939.1893090193</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>90</v>
       </c>
       <c r="I22" t="n">
-        <v>930.39216380977</v>
+        <v>1670.70711140276</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1086.38945088627</v>
+        <v>1878.42738405258</v>
       </c>
       <c r="C23" t="n">
-        <v>-1573.59590189417</v>
+        <v>-16103.5246568135</v>
       </c>
       <c r="D23" t="n">
-        <v>-2981.70709007363</v>
+        <v>-27515.2698665719</v>
       </c>
       <c r="E23" t="n">
-        <v>3746.37480366671</v>
+        <v>19881.2261028149</v>
       </c>
       <c r="F23" t="n">
-        <v>5154.48599184617</v>
+        <v>28324.9368220107</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>101</v>
       </c>
       <c r="I23" t="n">
-        <v>985.389450886272</v>
+        <v>1777.42738405258</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1268.7085057157</v>
+        <v>2081.99849874073</v>
       </c>
       <c r="C24" t="n">
-        <v>-1977.69438744411</v>
+        <v>-15022.2027844792</v>
       </c>
       <c r="D24" t="n">
-        <v>-3696.23626979628</v>
+        <v>-27164.4478378867</v>
       </c>
       <c r="E24" t="n">
-        <v>4515.11139887551</v>
+        <v>19248.6929499925</v>
       </c>
       <c r="F24" t="n">
-        <v>6233.65328122768</v>
+        <v>29735.1095265632</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>119</v>
       </c>
       <c r="I24" t="n">
-        <v>1149.7085057157</v>
+        <v>1962.99849874073</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1718.02672504686</v>
+        <v>2301.60007089285</v>
       </c>
       <c r="C25" t="n">
-        <v>-2872.73189195016</v>
+        <v>-16078.4056771058</v>
       </c>
       <c r="D25" t="n">
-        <v>-5302.93270642748</v>
+        <v>-26553.6783354211</v>
       </c>
       <c r="E25" t="n">
-        <v>6308.78534204388</v>
+        <v>21245.3327759826</v>
       </c>
       <c r="F25" t="n">
-        <v>8738.98615652119</v>
+        <v>30212.9717571372</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>158</v>
       </c>
       <c r="I25" t="n">
-        <v>1560.02672504686</v>
+        <v>2143.60007089285</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1722.53259179935</v>
+        <v>2162.81968879554</v>
       </c>
       <c r="C26" t="n">
-        <v>-3080.76099981079</v>
+        <v>-15844.8739668479</v>
       </c>
       <c r="D26" t="n">
-        <v>-5623.47103367886</v>
+        <v>-26999.5547110951</v>
       </c>
       <c r="E26" t="n">
-        <v>6525.82618340949</v>
+        <v>21729.2988862192</v>
       </c>
       <c r="F26" t="n">
-        <v>9068.53621727756</v>
+        <v>31263.3198397457</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="I26" t="n">
-        <v>1652.53259179935</v>
+        <v>2092.81968879554</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1573.77769186803</v>
+        <v>2100.86790065469</v>
       </c>
       <c r="C27" t="n">
-        <v>-3002.97512390532</v>
+        <v>-17320.9528898824</v>
       </c>
       <c r="D27" t="n">
-        <v>-5425.76171507428</v>
+        <v>-26684.4277108269</v>
       </c>
       <c r="E27" t="n">
-        <v>6150.53050764139</v>
+        <v>22217.6334221188</v>
       </c>
       <c r="F27" t="n">
-        <v>8573.31709881035</v>
+        <v>32219.9529953617</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>55</v>
       </c>
       <c r="I27" t="n">
-        <v>1518.77769186803</v>
+        <v>2045.86790065469</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>5000.43006687777</v>
+        <v>5002.55243508427</v>
       </c>
       <c r="C28" t="n">
-        <v>-10156.7293834669</v>
+        <v>-15386.780596316</v>
       </c>
       <c r="D28" t="n">
-        <v>-18180.4449203742</v>
+        <v>-25093.099125219</v>
       </c>
       <c r="E28" t="n">
-        <v>20157.5895172224</v>
+        <v>26374.523116687</v>
       </c>
       <c r="F28" t="n">
-        <v>28181.3050541297</v>
+        <v>36425.3965954498</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>98</v>
       </c>
       <c r="I28" t="n">
-        <v>4902.43006687777</v>
+        <v>4904.55243508427</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>8709.29270484721</v>
+        <v>8901.10346726498</v>
       </c>
       <c r="C29" t="n">
-        <v>-18792.8318357884</v>
+        <v>-12720.1748648203</v>
       </c>
       <c r="D29" t="n">
-        <v>-33351.5771401165</v>
+        <v>-22693.1854100212</v>
       </c>
       <c r="E29" t="n">
-        <v>36211.4172454828</v>
+        <v>30491.1683738962</v>
       </c>
       <c r="F29" t="n">
-        <v>50770.1625498109</v>
+        <v>42087.2801943335</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>97</v>
       </c>
       <c r="I29" t="n">
-        <v>8612.29270484721</v>
+        <v>8804.10346726498</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>9717.16621068647</v>
+        <v>10671.1615455796</v>
       </c>
       <c r="C30" t="n">
-        <v>-22234.4197383628</v>
+        <v>-11273.9353471402</v>
       </c>
       <c r="D30" t="n">
-        <v>-39148.5676331642</v>
+        <v>-22318.4883401924</v>
       </c>
       <c r="E30" t="n">
-        <v>41668.7521597358</v>
+        <v>32096.9899571097</v>
       </c>
       <c r="F30" t="n">
-        <v>58582.9000545372</v>
+        <v>43849.0769420364</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>155</v>
       </c>
       <c r="I30" t="n">
-        <v>9562.16621068647</v>
+        <v>10516.1615455796</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5505.64345127063</v>
+        <v>7330.40168845692</v>
       </c>
       <c r="C31" t="n">
-        <v>-13337.1253935064</v>
+        <v>-14650.8448609141</v>
       </c>
       <c r="D31" t="n">
-        <v>-23311.8846901603</v>
+        <v>-25151.1988474434</v>
       </c>
       <c r="E31" t="n">
-        <v>24348.4122960477</v>
+        <v>28734.983990186</v>
       </c>
       <c r="F31" t="n">
-        <v>34323.1715927015</v>
+        <v>42341.8433229484</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>167</v>
       </c>
       <c r="I31" t="n">
-        <v>5338.64345127063</v>
+        <v>7163.40168845692</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2489.11704989922</v>
+        <v>4081.04992389019</v>
       </c>
       <c r="C32" t="n">
-        <v>-6374.19923132671</v>
+        <v>-18879.3888213315</v>
       </c>
       <c r="D32" t="n">
-        <v>-11066.1554509058</v>
+        <v>-27104.5276085879</v>
       </c>
       <c r="E32" t="n">
-        <v>11352.4333311251</v>
+        <v>28237.7086228816</v>
       </c>
       <c r="F32" t="n">
-        <v>16044.3895507042</v>
+        <v>37941.9404455241</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>106</v>
       </c>
       <c r="I32" t="n">
-        <v>2383.11704989922</v>
+        <v>3975.04992389019</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1236.74677356895</v>
+        <v>2760.02903207704</v>
       </c>
       <c r="C33" t="n">
-        <v>-3343.52069589339</v>
+        <v>-19715.0411992955</v>
       </c>
       <c r="D33" t="n">
-        <v>-5768.16783233824</v>
+        <v>-29913.8404910675</v>
       </c>
       <c r="E33" t="n">
-        <v>5817.01424303128</v>
+        <v>27062.9880378703</v>
       </c>
       <c r="F33" t="n">
-        <v>8241.66137947613</v>
+        <v>37610.5637595185</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>128</v>
       </c>
       <c r="I33" t="n">
-        <v>1108.74677356895</v>
+        <v>2632.02903207704</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1020.39960065105</v>
+        <v>2374.0311101386</v>
       </c>
       <c r="C34" t="n">
-        <v>-2908.7382576287</v>
+        <v>-21004.1429745069</v>
       </c>
       <c r="D34" t="n">
-        <v>-4988.69819889679</v>
+        <v>-31010.8253331457</v>
       </c>
       <c r="E34" t="n">
-        <v>4949.53745893081</v>
+        <v>26035.4753263309</v>
       </c>
       <c r="F34" t="n">
-        <v>7029.4974001989</v>
+        <v>37385.1803211608</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="I34" t="n">
-        <v>922.399600651055</v>
+        <v>2276.0311101386</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1086.39736873022</v>
+        <v>2461.1929938969</v>
       </c>
       <c r="C35" t="n">
-        <v>-3261.72889103639</v>
+        <v>-21832.8153583975</v>
       </c>
       <c r="D35" t="n">
-        <v>-5563.48789418066</v>
+        <v>-31533.7657607855</v>
       </c>
       <c r="E35" t="n">
-        <v>5434.52362849683</v>
+        <v>27949.2502893536</v>
       </c>
       <c r="F35" t="n">
-        <v>7736.2826316411</v>
+        <v>39656.8980444758</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>968.39736873022</v>
+        <v>2343.1929938969</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1268.7177523408</v>
+        <v>2722.3144281088</v>
       </c>
       <c r="C36" t="n">
-        <v>-4007.77128069096</v>
+        <v>-20617.2226492736</v>
       </c>
       <c r="D36" t="n">
-        <v>-6800.97585001383</v>
+        <v>-32795.9051717192</v>
       </c>
       <c r="E36" t="n">
-        <v>6545.20678537256</v>
+        <v>28798.2568053644</v>
       </c>
       <c r="F36" t="n">
-        <v>9338.41135469543</v>
+        <v>40414.6956066002</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>120</v>
       </c>
       <c r="I36" t="n">
-        <v>1148.7177523408</v>
+        <v>2602.3144281088</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1718.03924640142</v>
+        <v>2879.55438826685</v>
       </c>
       <c r="C37" t="n">
-        <v>-5704.7893770808</v>
+        <v>-20740.1913865803</v>
       </c>
       <c r="D37" t="n">
-        <v>-9634.19749270765</v>
+        <v>-33420.2505686277</v>
       </c>
       <c r="E37" t="n">
-        <v>9140.86786988363</v>
+        <v>29164.3630344159</v>
       </c>
       <c r="F37" t="n">
-        <v>13070.2759855105</v>
+        <v>40692.5114990721</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>72</v>
       </c>
       <c r="I37" t="n">
-        <v>1646.03924640142</v>
+        <v>2807.55438826685</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1722.54514599366</v>
+        <v>2686.34657207557</v>
       </c>
       <c r="C38" t="n">
-        <v>-6007.19247829894</v>
+        <v>-20850.7215092113</v>
       </c>
       <c r="D38" t="n">
-        <v>-10099.0684050144</v>
+        <v>-36682.5929564457</v>
       </c>
       <c r="E38" t="n">
-        <v>9452.28277028625</v>
+        <v>29357.9578378548</v>
       </c>
       <c r="F38" t="n">
-        <v>13544.1586970017</v>
+        <v>42339.9688776417</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>40</v>
       </c>
       <c r="I38" t="n">
-        <v>1682.54514599366</v>
+        <v>2646.34657207557</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1573.78916190409</v>
+        <v>2944.03609303999</v>
       </c>
       <c r="C39" t="n">
-        <v>-5759.55314179319</v>
+        <v>-21942.9793603265</v>
       </c>
       <c r="D39" t="n">
-        <v>-9641.59006120408</v>
+        <v>-36862.535403297</v>
       </c>
       <c r="E39" t="n">
-        <v>8907.13146560138</v>
+        <v>27874.4928494972</v>
       </c>
       <c r="F39" t="n">
-        <v>12789.1683850123</v>
+        <v>43177.1121021455</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>67</v>
       </c>
       <c r="I39" t="n">
-        <v>1506.78916190409</v>
+        <v>2877.03609303999</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>5000.46651110586</v>
+        <v>5559.48079945067</v>
       </c>
       <c r="C40" t="n">
-        <v>-19189.8150661007</v>
+        <v>-18956.5331813138</v>
       </c>
       <c r="D40" t="n">
-        <v>-31995.3766074344</v>
+        <v>-34535.2732241082</v>
       </c>
       <c r="E40" t="n">
-        <v>29190.7480883125</v>
+        <v>32658.4476233109</v>
       </c>
       <c r="F40" t="n">
-        <v>41996.3096296461</v>
+        <v>46661.9018891208</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>90</v>
       </c>
       <c r="I40" t="n">
-        <v>4910.46651110586</v>
+        <v>5469.48079945067</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>

--- a/outcome/appendix/data/Epidemic/Rubella.xlsx
+++ b/outcome/appendix/data/Epidemic/Rubella.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1682.24278870184</v>
+        <v>1722.50748368523</v>
       </c>
       <c r="C2" t="n">
-        <v>-2264.17309044861</v>
+        <v>1128.65460342033</v>
       </c>
       <c r="D2" t="n">
-        <v>-3677.37531948251</v>
+        <v>814.287878069938</v>
       </c>
       <c r="E2" t="n">
-        <v>5251.6832024515</v>
+        <v>2316.36036395013</v>
       </c>
       <c r="F2" t="n">
-        <v>7312.0048603957</v>
+        <v>2630.72708930052</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>1199</v>
       </c>
       <c r="I2" t="n">
-        <v>483.242788701841</v>
+        <v>523.50748368523</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1661.19847165088</v>
+        <v>1573.7547520467</v>
       </c>
       <c r="C3" t="n">
-        <v>-3577.16817579264</v>
+        <v>792.728171138095</v>
       </c>
       <c r="D3" t="n">
-        <v>-7304.39095069747</v>
+        <v>379.277673866225</v>
       </c>
       <c r="E3" t="n">
-        <v>6622.06286441681</v>
+        <v>2354.78133295532</v>
       </c>
       <c r="F3" t="n">
-        <v>9631.91347362193</v>
+        <v>2768.23183022718</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>306</v>
       </c>
       <c r="I3" t="n">
-        <v>1355.19847165088</v>
+        <v>1267.7547520467</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4467.45275577522</v>
+        <v>5000.35717921842</v>
       </c>
       <c r="C4" t="n">
-        <v>-1413.24139462009</v>
+        <v>1905.97617927905</v>
       </c>
       <c r="D4" t="n">
-        <v>-4134.21528410361</v>
+        <v>267.909826037655</v>
       </c>
       <c r="E4" t="n">
-        <v>11439.7627950766</v>
+        <v>8094.73817915779</v>
       </c>
       <c r="F4" t="n">
-        <v>14410.7617462305</v>
+        <v>9732.80453239918</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>197</v>
       </c>
       <c r="I4" t="n">
-        <v>4270.45275577522</v>
+        <v>4803.35717921842</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>8012.52143831071</v>
+        <v>8709.16575577456</v>
       </c>
       <c r="C5" t="n">
-        <v>189.030427564245</v>
+        <v>2371.80108461244</v>
       </c>
       <c r="D5" t="n">
-        <v>-2134.10093718527</v>
+        <v>-982.997124223106</v>
       </c>
       <c r="E5" t="n">
-        <v>15750.1026658675</v>
+        <v>15046.5304269367</v>
       </c>
       <c r="F5" t="n">
-        <v>19815.1873092456</v>
+        <v>18401.3286357722</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>116</v>
       </c>
       <c r="I5" t="n">
-        <v>7896.52143831071</v>
+        <v>8593.16575577456</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>9445.19837821174</v>
+        <v>9717.02457056929</v>
       </c>
       <c r="C6" t="n">
-        <v>1578.89100186178</v>
+        <v>1665.09733903548</v>
       </c>
       <c r="D6" t="n">
-        <v>-2205.78556490579</v>
+        <v>-2597.33546318961</v>
       </c>
       <c r="E6" t="n">
-        <v>17032.501640787</v>
+        <v>17768.9518021031</v>
       </c>
       <c r="F6" t="n">
-        <v>22847.229300097</v>
+        <v>22031.3846043282</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>9355.19837821174</v>
+        <v>9627.02457056929</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5711.40847405705</v>
+        <v>5505.56319948048</v>
       </c>
       <c r="C7" t="n">
-        <v>-3138.54061468026</v>
+        <v>414.285516131601</v>
       </c>
       <c r="D7" t="n">
-        <v>-6894.53221395624</v>
+        <v>-2280.87408711893</v>
       </c>
       <c r="E7" t="n">
-        <v>14508.4342865746</v>
+        <v>10596.8408828294</v>
       </c>
       <c r="F7" t="n">
-        <v>19433.6278836216</v>
+        <v>13292.0004860799</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>114</v>
       </c>
       <c r="I7" t="n">
-        <v>5597.40847405705</v>
+        <v>5391.56319948048</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2400.27729680086</v>
+        <v>2489.08076783683</v>
       </c>
       <c r="C8" t="n">
-        <v>-7024.16462752595</v>
+        <v>-44.2577403004939</v>
       </c>
       <c r="D8" t="n">
-        <v>-11559.6611296133</v>
+        <v>-1385.32613867542</v>
       </c>
       <c r="E8" t="n">
-        <v>11723.3735464812</v>
+        <v>5022.41927597416</v>
       </c>
       <c r="F8" t="n">
-        <v>15928.1630220154</v>
+        <v>6363.48767434909</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>96</v>
       </c>
       <c r="I8" t="n">
-        <v>2304.27729680086</v>
+        <v>2393.08076783683</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>974.144395385645</v>
+        <v>1236.72874640402</v>
       </c>
       <c r="C9" t="n">
-        <v>-8746.43245677837</v>
+        <v>-134.68338178881</v>
       </c>
       <c r="D9" t="n">
-        <v>-13030.659470103</v>
+        <v>-860.665109205004</v>
       </c>
       <c r="E9" t="n">
-        <v>11308.1179261156</v>
+        <v>2608.14087459684</v>
       </c>
       <c r="F9" t="n">
-        <v>16880.3122244407</v>
+        <v>3334.12260201304</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>82</v>
       </c>
       <c r="I9" t="n">
-        <v>892.144395385645</v>
+        <v>1154.72874640402</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1192.7045438805</v>
+        <v>1020.38472702269</v>
       </c>
       <c r="C10" t="n">
-        <v>-8861.52022447152</v>
+        <v>-203.003155959862</v>
       </c>
       <c r="D10" t="n">
-        <v>-14799.8624426148</v>
+        <v>-850.625581290224</v>
       </c>
       <c r="E10" t="n">
-        <v>11982.7684184494</v>
+        <v>2243.77261000524</v>
       </c>
       <c r="F10" t="n">
-        <v>18225.2569466338</v>
+        <v>2891.3950353356</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="n">
-        <v>1090.7045438805</v>
+        <v>918.384727022687</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1371.15803957078</v>
+        <v>1086.38153310003</v>
       </c>
       <c r="C11" t="n">
-        <v>-9674.18492841222</v>
+        <v>-313.458742176718</v>
       </c>
       <c r="D11" t="n">
-        <v>-14858.4829427437</v>
+        <v>-1054.4894216205</v>
       </c>
       <c r="E11" t="n">
-        <v>13558.5743477495</v>
+        <v>2486.22180837678</v>
       </c>
       <c r="F11" t="n">
-        <v>19621.0530362734</v>
+        <v>3227.25248782056</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>157</v>
       </c>
       <c r="I11" t="n">
-        <v>1214.15803957078</v>
+        <v>929.38153310003</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1456.07858812298</v>
+        <v>1268.69925915799</v>
       </c>
       <c r="C12" t="n">
-        <v>-10120.8316890271</v>
+        <v>-479.756132394754</v>
       </c>
       <c r="D12" t="n">
-        <v>-16485.5154249419</v>
+        <v>-1405.33250683028</v>
       </c>
       <c r="E12" t="n">
-        <v>13375.3045243925</v>
+        <v>3017.15465071074</v>
       </c>
       <c r="F12" t="n">
-        <v>20833.7878887541</v>
+        <v>3942.73102514626</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>276</v>
       </c>
       <c r="I12" t="n">
-        <v>1180.07858812298</v>
+        <v>992.699259157991</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1821.28157493801</v>
+        <v>1718.01420378355</v>
       </c>
       <c r="C13" t="n">
-        <v>-10752.9714769921</v>
+        <v>-804.340402051133</v>
       </c>
       <c r="D13" t="n">
-        <v>-18824.8289902589</v>
+        <v>-2139.59427377611</v>
       </c>
       <c r="E13" t="n">
-        <v>14803.16617577</v>
+        <v>4240.36880961823</v>
       </c>
       <c r="F13" t="n">
-        <v>22363.5410725928</v>
+        <v>5575.62268134321</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>104</v>
       </c>
       <c r="I13" t="n">
-        <v>1717.28157493801</v>
+        <v>1614.01420378355</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1439.26964200406</v>
+        <v>1722.52003769654</v>
       </c>
       <c r="C14" t="n">
-        <v>-11985.1279168767</v>
+        <v>-962.848490676093</v>
       </c>
       <c r="D14" t="n">
-        <v>-18187.1811748233</v>
+        <v>-2384.39672034359</v>
       </c>
       <c r="E14" t="n">
-        <v>14468.5396977464</v>
+        <v>4407.88856606918</v>
       </c>
       <c r="F14" t="n">
-        <v>22966.2563956416</v>
+        <v>5829.43679573668</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>127</v>
       </c>
       <c r="I14" t="n">
-        <v>1312.26964200406</v>
+        <v>1595.52003769654</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1457.0761357468</v>
+        <v>1573.76622191557</v>
       </c>
       <c r="C15" t="n">
-        <v>-12439.1991817767</v>
+        <v>-1024.18726743177</v>
       </c>
       <c r="D15" t="n">
-        <v>-21182.8046353887</v>
+        <v>-2399.4607706847</v>
       </c>
       <c r="E15" t="n">
-        <v>14980.5048252306</v>
+        <v>4171.71971126291</v>
       </c>
       <c r="F15" t="n">
-        <v>23690.5235026365</v>
+        <v>5546.99321451584</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>46</v>
       </c>
       <c r="I15" t="n">
-        <v>1411.0761357468</v>
+        <v>1527.76622191557</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4204.48771313815</v>
+        <v>5000.39362291529</v>
       </c>
       <c r="C16" t="n">
-        <v>-8858.86359917337</v>
+        <v>-3719.68604150992</v>
       </c>
       <c r="D16" t="n">
-        <v>-20694.9744614363</v>
+        <v>-8335.81737639056</v>
       </c>
       <c r="E16" t="n">
-        <v>18001.5388976035</v>
+        <v>13720.4732873405</v>
       </c>
       <c r="F16" t="n">
-        <v>26753.6776581767</v>
+        <v>18336.6046222211</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>82</v>
       </c>
       <c r="I16" t="n">
-        <v>4122.48771313815</v>
+        <v>4918.39362291529</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>8133.05850369506</v>
+        <v>8709.22923007958</v>
       </c>
       <c r="C17" t="n">
-        <v>-6340.45218752979</v>
+        <v>-7302.47465403387</v>
       </c>
       <c r="D17" t="n">
-        <v>-16018.038051385</v>
+        <v>-15778.5586886581</v>
       </c>
       <c r="E17" t="n">
-        <v>22467.6080246028</v>
+        <v>24720.933114193</v>
       </c>
       <c r="F17" t="n">
-        <v>30131.4701353057</v>
+        <v>33197.0171488173</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>107</v>
       </c>
       <c r="I17" t="n">
-        <v>8026.05850369506</v>
+        <v>8602.22923007958</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>9532.42246408241</v>
+        <v>9717.0953903698</v>
       </c>
       <c r="C18" t="n">
-        <v>-5997.3192326258</v>
+        <v>-9083.3900349258</v>
       </c>
       <c r="D18" t="n">
-        <v>-15155.1498155489</v>
+        <v>-19035.7658413909</v>
       </c>
       <c r="E18" t="n">
-        <v>24732.9931434881</v>
+        <v>28517.5808156654</v>
       </c>
       <c r="F18" t="n">
-        <v>32998.5202210505</v>
+        <v>38469.9566221305</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>187</v>
       </c>
       <c r="I18" t="n">
-        <v>9345.42246408241</v>
+        <v>9530.0953903698</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6094.02251135227</v>
+        <v>5505.60332522934</v>
       </c>
       <c r="C19" t="n">
-        <v>-9863.548805953</v>
+        <v>-5687.28189116755</v>
       </c>
       <c r="D19" t="n">
-        <v>-21120.8958812708</v>
+        <v>-11612.4374130738</v>
       </c>
       <c r="E19" t="n">
-        <v>21730.2080513378</v>
+        <v>16698.4885416262</v>
       </c>
       <c r="F19" t="n">
-        <v>29520.8701176267</v>
+        <v>22623.6440635325</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>115</v>
       </c>
       <c r="I19" t="n">
-        <v>5979.02251135227</v>
+        <v>5390.60332522934</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2470.47549330965</v>
+        <v>2489.09890880192</v>
       </c>
       <c r="C20" t="n">
-        <v>-14192.5740970634</v>
+        <v>-2820.89896545507</v>
       </c>
       <c r="D20" t="n">
-        <v>-26231.6702944098</v>
+        <v>-5631.84204382005</v>
       </c>
       <c r="E20" t="n">
-        <v>18649.6585129049</v>
+        <v>7799.09678305891</v>
       </c>
       <c r="F20" t="n">
-        <v>26574.0062349461</v>
+        <v>10610.0398614239</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>102</v>
       </c>
       <c r="I20" t="n">
-        <v>2368.47549330965</v>
+        <v>2387.09890880192</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1713.40150979819</v>
+        <v>1236.73775995364</v>
       </c>
       <c r="C21" t="n">
-        <v>-15793.764451541</v>
+        <v>-1528.44338916086</v>
       </c>
       <c r="D21" t="n">
-        <v>-27428.6554595252</v>
+        <v>-2992.241868104</v>
       </c>
       <c r="E21" t="n">
-        <v>17914.5719583091</v>
+        <v>4001.91890906813</v>
       </c>
       <c r="F21" t="n">
-        <v>25315.9746503328</v>
+        <v>5465.71738801127</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>68</v>
       </c>
       <c r="I21" t="n">
-        <v>1645.40150979819</v>
+        <v>1168.73775995364</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1760.70711140276</v>
+        <v>1020.39216380977</v>
       </c>
       <c r="C22" t="n">
-        <v>-15732.086689592</v>
+        <v>-1368.20900618701</v>
       </c>
       <c r="D22" t="n">
-        <v>-28556.9162341774</v>
+        <v>-2632.65808597434</v>
       </c>
       <c r="E22" t="n">
-        <v>18557.8328875312</v>
+        <v>3408.99333380655</v>
       </c>
       <c r="F22" t="n">
-        <v>26939.1893090193</v>
+        <v>4673.44241359388</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>90</v>
       </c>
       <c r="I22" t="n">
-        <v>1670.70711140276</v>
+        <v>930.39216380977</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1878.42738405258</v>
+        <v>1086.38945088627</v>
       </c>
       <c r="C23" t="n">
-        <v>-16103.5246568135</v>
+        <v>-1573.59590189417</v>
       </c>
       <c r="D23" t="n">
-        <v>-27515.2698665719</v>
+        <v>-2981.70709007363</v>
       </c>
       <c r="E23" t="n">
-        <v>19881.2261028149</v>
+        <v>3746.37480366671</v>
       </c>
       <c r="F23" t="n">
-        <v>28324.9368220107</v>
+        <v>5154.48599184617</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>101</v>
       </c>
       <c r="I23" t="n">
-        <v>1777.42738405258</v>
+        <v>985.389450886272</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2081.99849874073</v>
+        <v>1268.7085057157</v>
       </c>
       <c r="C24" t="n">
-        <v>-15022.2027844792</v>
+        <v>-1977.69438744411</v>
       </c>
       <c r="D24" t="n">
-        <v>-27164.4478378867</v>
+        <v>-3696.23626979628</v>
       </c>
       <c r="E24" t="n">
-        <v>19248.6929499925</v>
+        <v>4515.11139887551</v>
       </c>
       <c r="F24" t="n">
-        <v>29735.1095265632</v>
+        <v>6233.65328122768</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>119</v>
       </c>
       <c r="I24" t="n">
-        <v>1962.99849874073</v>
+        <v>1149.7085057157</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2301.60007089285</v>
+        <v>1718.02672504686</v>
       </c>
       <c r="C25" t="n">
-        <v>-16078.4056771058</v>
+        <v>-2872.73189195016</v>
       </c>
       <c r="D25" t="n">
-        <v>-26553.6783354211</v>
+        <v>-5302.93270642748</v>
       </c>
       <c r="E25" t="n">
-        <v>21245.3327759826</v>
+        <v>6308.78534204388</v>
       </c>
       <c r="F25" t="n">
-        <v>30212.9717571372</v>
+        <v>8738.98615652119</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>158</v>
       </c>
       <c r="I25" t="n">
-        <v>2143.60007089285</v>
+        <v>1560.02672504686</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2162.81968879554</v>
+        <v>1722.53259179935</v>
       </c>
       <c r="C26" t="n">
-        <v>-15844.8739668479</v>
+        <v>-3080.76099981079</v>
       </c>
       <c r="D26" t="n">
-        <v>-26999.5547110951</v>
+        <v>-5623.47103367886</v>
       </c>
       <c r="E26" t="n">
-        <v>21729.2988862192</v>
+        <v>6525.82618340949</v>
       </c>
       <c r="F26" t="n">
-        <v>31263.3198397457</v>
+        <v>9068.53621727756</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="I26" t="n">
-        <v>2092.81968879554</v>
+        <v>1652.53259179935</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2100.86790065469</v>
+        <v>1573.77769186803</v>
       </c>
       <c r="C27" t="n">
-        <v>-17320.9528898824</v>
+        <v>-3002.97512390532</v>
       </c>
       <c r="D27" t="n">
-        <v>-26684.4277108269</v>
+        <v>-5425.76171507428</v>
       </c>
       <c r="E27" t="n">
-        <v>22217.6334221188</v>
+        <v>6150.53050764139</v>
       </c>
       <c r="F27" t="n">
-        <v>32219.9529953617</v>
+        <v>8573.31709881035</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>55</v>
       </c>
       <c r="I27" t="n">
-        <v>2045.86790065469</v>
+        <v>1518.77769186803</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>5002.55243508427</v>
+        <v>5000.43006687777</v>
       </c>
       <c r="C28" t="n">
-        <v>-15386.780596316</v>
+        <v>-10156.7293834669</v>
       </c>
       <c r="D28" t="n">
-        <v>-25093.099125219</v>
+        <v>-18180.4449203742</v>
       </c>
       <c r="E28" t="n">
-        <v>26374.523116687</v>
+        <v>20157.5895172224</v>
       </c>
       <c r="F28" t="n">
-        <v>36425.3965954498</v>
+        <v>28181.3050541297</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>98</v>
       </c>
       <c r="I28" t="n">
-        <v>4904.55243508427</v>
+        <v>4902.43006687777</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>8901.10346726498</v>
+        <v>8709.29270484721</v>
       </c>
       <c r="C29" t="n">
-        <v>-12720.1748648203</v>
+        <v>-18792.8318357884</v>
       </c>
       <c r="D29" t="n">
-        <v>-22693.1854100212</v>
+        <v>-33351.5771401165</v>
       </c>
       <c r="E29" t="n">
-        <v>30491.1683738962</v>
+        <v>36211.4172454828</v>
       </c>
       <c r="F29" t="n">
-        <v>42087.2801943335</v>
+        <v>50770.1625498109</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>97</v>
       </c>
       <c r="I29" t="n">
-        <v>8804.10346726498</v>
+        <v>8612.29270484721</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>10671.1615455796</v>
+        <v>9717.16621068647</v>
       </c>
       <c r="C30" t="n">
-        <v>-11273.9353471402</v>
+        <v>-22234.4197383628</v>
       </c>
       <c r="D30" t="n">
-        <v>-22318.4883401924</v>
+        <v>-39148.5676331642</v>
       </c>
       <c r="E30" t="n">
-        <v>32096.9899571097</v>
+        <v>41668.7521597358</v>
       </c>
       <c r="F30" t="n">
-        <v>43849.0769420364</v>
+        <v>58582.9000545372</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>155</v>
       </c>
       <c r="I30" t="n">
-        <v>10516.1615455796</v>
+        <v>9562.16621068647</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7330.40168845692</v>
+        <v>5505.64345127063</v>
       </c>
       <c r="C31" t="n">
-        <v>-14650.8448609141</v>
+        <v>-13337.1253935064</v>
       </c>
       <c r="D31" t="n">
-        <v>-25151.1988474434</v>
+        <v>-23311.8846901603</v>
       </c>
       <c r="E31" t="n">
-        <v>28734.983990186</v>
+        <v>24348.4122960477</v>
       </c>
       <c r="F31" t="n">
-        <v>42341.8433229484</v>
+        <v>34323.1715927015</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>167</v>
       </c>
       <c r="I31" t="n">
-        <v>7163.40168845692</v>
+        <v>5338.64345127063</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>4081.04992389019</v>
+        <v>2489.11704989922</v>
       </c>
       <c r="C32" t="n">
-        <v>-18879.3888213315</v>
+        <v>-6374.19923132671</v>
       </c>
       <c r="D32" t="n">
-        <v>-27104.5276085879</v>
+        <v>-11066.1554509058</v>
       </c>
       <c r="E32" t="n">
-        <v>28237.7086228816</v>
+        <v>11352.4333311251</v>
       </c>
       <c r="F32" t="n">
-        <v>37941.9404455241</v>
+        <v>16044.3895507042</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>106</v>
       </c>
       <c r="I32" t="n">
-        <v>3975.04992389019</v>
+        <v>2383.11704989922</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2760.02903207704</v>
+        <v>1236.74677356895</v>
       </c>
       <c r="C33" t="n">
-        <v>-19715.0411992955</v>
+        <v>-3343.52069589339</v>
       </c>
       <c r="D33" t="n">
-        <v>-29913.8404910675</v>
+        <v>-5768.16783233824</v>
       </c>
       <c r="E33" t="n">
-        <v>27062.9880378703</v>
+        <v>5817.01424303128</v>
       </c>
       <c r="F33" t="n">
-        <v>37610.5637595185</v>
+        <v>8241.66137947613</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>128</v>
       </c>
       <c r="I33" t="n">
-        <v>2632.02903207704</v>
+        <v>1108.74677356895</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2374.0311101386</v>
+        <v>1020.39960065105</v>
       </c>
       <c r="C34" t="n">
-        <v>-21004.1429745069</v>
+        <v>-2908.7382576287</v>
       </c>
       <c r="D34" t="n">
-        <v>-31010.8253331457</v>
+        <v>-4988.69819889679</v>
       </c>
       <c r="E34" t="n">
-        <v>26035.4753263309</v>
+        <v>4949.53745893081</v>
       </c>
       <c r="F34" t="n">
-        <v>37385.1803211608</v>
+        <v>7029.4974001989</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="I34" t="n">
-        <v>2276.0311101386</v>
+        <v>922.399600651055</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2461.1929938969</v>
+        <v>1086.39736873022</v>
       </c>
       <c r="C35" t="n">
-        <v>-21832.8153583975</v>
+        <v>-3261.72889103639</v>
       </c>
       <c r="D35" t="n">
-        <v>-31533.7657607855</v>
+        <v>-5563.48789418066</v>
       </c>
       <c r="E35" t="n">
-        <v>27949.2502893536</v>
+        <v>5434.52362849683</v>
       </c>
       <c r="F35" t="n">
-        <v>39656.8980444758</v>
+        <v>7736.2826316411</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>2343.1929938969</v>
+        <v>968.39736873022</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2722.3144281088</v>
+        <v>1268.7177523408</v>
       </c>
       <c r="C36" t="n">
-        <v>-20617.2226492736</v>
+        <v>-4007.77128069096</v>
       </c>
       <c r="D36" t="n">
-        <v>-32795.9051717192</v>
+        <v>-6800.97585001383</v>
       </c>
       <c r="E36" t="n">
-        <v>28798.2568053644</v>
+        <v>6545.20678537256</v>
       </c>
       <c r="F36" t="n">
-        <v>40414.6956066002</v>
+        <v>9338.41135469543</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>120</v>
       </c>
       <c r="I36" t="n">
-        <v>2602.3144281088</v>
+        <v>1148.7177523408</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2879.55438826685</v>
+        <v>1718.03924640142</v>
       </c>
       <c r="C37" t="n">
-        <v>-20740.1913865803</v>
+        <v>-5704.7893770808</v>
       </c>
       <c r="D37" t="n">
-        <v>-33420.2505686277</v>
+        <v>-9634.19749270765</v>
       </c>
       <c r="E37" t="n">
-        <v>29164.3630344159</v>
+        <v>9140.86786988363</v>
       </c>
       <c r="F37" t="n">
-        <v>40692.5114990721</v>
+        <v>13070.2759855105</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>72</v>
       </c>
       <c r="I37" t="n">
-        <v>2807.55438826685</v>
+        <v>1646.03924640142</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2686.34657207557</v>
+        <v>1722.54514599366</v>
       </c>
       <c r="C38" t="n">
-        <v>-20850.7215092113</v>
+        <v>-6007.19247829894</v>
       </c>
       <c r="D38" t="n">
-        <v>-36682.5929564457</v>
+        <v>-10099.0684050144</v>
       </c>
       <c r="E38" t="n">
-        <v>29357.9578378548</v>
+        <v>9452.28277028625</v>
       </c>
       <c r="F38" t="n">
-        <v>42339.9688776417</v>
+        <v>13544.1586970017</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>40</v>
       </c>
       <c r="I38" t="n">
-        <v>2646.34657207557</v>
+        <v>1682.54514599366</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2944.03609303999</v>
+        <v>1573.78916190409</v>
       </c>
       <c r="C39" t="n">
-        <v>-21942.9793603265</v>
+        <v>-5759.55314179319</v>
       </c>
       <c r="D39" t="n">
-        <v>-36862.535403297</v>
+        <v>-9641.59006120408</v>
       </c>
       <c r="E39" t="n">
-        <v>27874.4928494972</v>
+        <v>8907.13146560138</v>
       </c>
       <c r="F39" t="n">
-        <v>43177.1121021455</v>
+        <v>12789.1683850123</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>67</v>
       </c>
       <c r="I39" t="n">
-        <v>2877.03609303999</v>
+        <v>1506.78916190409</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>5559.48079945067</v>
+        <v>5000.46651110586</v>
       </c>
       <c r="C40" t="n">
-        <v>-18956.5331813138</v>
+        <v>-19189.8150661007</v>
       </c>
       <c r="D40" t="n">
-        <v>-34535.2732241082</v>
+        <v>-31995.3766074344</v>
       </c>
       <c r="E40" t="n">
-        <v>32658.4476233109</v>
+        <v>29190.7480883125</v>
       </c>
       <c r="F40" t="n">
-        <v>46661.9018891208</v>
+        <v>41996.3096296461</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>90</v>
       </c>
       <c r="I40" t="n">
-        <v>5469.48079945067</v>
+        <v>4910.46651110586</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
